--- a/sprint_1_bd/exercicios_01/1.3-exercicio-pclinics/ex3/1.3_modelagem_fisico.xlsx
+++ b/sprint_1_bd/exercicios_01/1.3-exercicio-pclinics/ex3/1.3_modelagem_fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Werther\Documents\SENAI - 2\sprint_1_bd\exercicios_01\1.3-exercicio-pclinics\ex3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\SENAI_2\sprint_1_bd\exercicios_01\1.3-exercicio-pclinics\ex3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFF57D2-949E-4DDC-9A17-7BCDD38FD328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FAEBBF-0274-4FAA-9403-4B57DF0C4594}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="15" windowWidth="28110" windowHeight="16440" xr2:uid="{F150418A-1BBA-449A-AF4B-AF264D542C04}"/>
+    <workbookView xWindow="20376" yWindow="12" windowWidth="28116" windowHeight="16440" xr2:uid="{F150418A-1BBA-449A-AF4B-AF264D542C04}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -266,10 +266,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -587,42 +587,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B911A7EF-897B-428F-8661-0F26E8E21308}">
   <dimension ref="B3:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,14 +647,14 @@
       <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -671,10 +671,10 @@
         <v>8</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
@@ -686,7 +686,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -703,10 +703,10 @@
         <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
         <v>2</v>
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -735,10 +735,10 @@
         <v>9</v>
       </c>
       <c r="I7" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -750,12 +750,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="I8" s="1">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
         <v>4</v>
-      </c>
-      <c r="J8" s="1">
-        <v>3</v>
       </c>
       <c r="K8" s="1">
         <v>4</v>
@@ -767,19 +767,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="6" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="I11" s="6" t="s">
+      <c r="F11" s="7"/>
+      <c r="I11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
@@ -799,7 +799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E13" s="1">
         <v>1</v>
       </c>
@@ -819,7 +819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E14" s="1">
         <v>2</v>
       </c>
@@ -839,7 +839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E15" s="1">
         <v>3</v>
       </c>
@@ -859,7 +859,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="I16" s="1">
         <v>4</v>
       </c>
@@ -873,18 +873,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="6" t="s">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="I19" s="6" t="s">
+      <c r="F19" s="7"/>
+      <c r="I19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
         <v>24</v>
       </c>
@@ -901,7 +901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E21" s="1">
         <v>1</v>
       </c>
@@ -918,7 +918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E22" s="1">
         <v>2</v>
       </c>
@@ -935,7 +935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E23" s="1">
         <v>3</v>
       </c>
@@ -952,7 +952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
       <c r="I24" s="1">
         <v>4</v>
       </c>
